--- a/1-data/1-1-dry-weights/2023-04-litter dry weights.xlsx
+++ b/1-data/1-1-dry-weights/2023-04-litter dry weights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rb44vuni/Documents/Projects/X-Litterfall-MyDiv_Project/MyDiv-analyses-Elisabeth/1-data/1-1-dry-weights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eb64wupi\Documents\MyDiv\MyDiv-litterfall-project\1-data\1-1-dry-weights\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E7E05-7542-AC48-964F-3216F5090727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005C50CC-E2EE-4263-9609-B1475ADE0DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="24660" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,7 +337,7 @@
     <t>no_stone</t>
   </si>
   <si>
-    <t>Other (g)</t>
+    <t>contaminants (g)</t>
   </si>
 </sst>
 </file>
@@ -993,13 +993,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="78" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S9" sqref="S9"/>
       <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
     <col min="2" max="3" width="8.83203125" style="1" customWidth="1"/>
@@ -1009,7 +1009,7 @@
     <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="61" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="56" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>100</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>100</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>100</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>100</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>100</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>100</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>100</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>100</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>100</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>100</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>100</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>100</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>100</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>100</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>100</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>100</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>100</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
         <v>100</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>100</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>100</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>100</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>100</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>100</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>100</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>100</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>100</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
         <v>100</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>100</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>100</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
         <v>100</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>100</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>100</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
         <v>100</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>100</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>100</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
         <v>100</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>100</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
         <v>100</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>100</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>100</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="6" t="s">
         <v>100</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>100</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>100</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>100</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>100</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>100</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>100</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>100</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>100</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>100</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>100</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>100</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>100</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>100</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>100</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
         <v>100</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>100</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>100</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6" t="s">
         <v>100</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>100</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>100</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="6" t="s">
         <v>100</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>100</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>100</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="6" t="s">
         <v>100</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>100</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>100</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6" t="s">
         <v>100</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>100</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>100</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>100</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>100</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>100</v>
       </c>
@@ -4675,7 +4675,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>100</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>100</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
         <v>100</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>100</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>100</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>100</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>100</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>100</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>100</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>100</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>100</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>100</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>100</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>100</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
         <v>100</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>100</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>100</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
         <v>100</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>100</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>100</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
         <v>100</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>100</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6" t="s">
         <v>100</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>100</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>100</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
         <v>100</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>100</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>100</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6" t="s">
         <v>100</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>100</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>100</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
         <v>100</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>100</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6" t="s">
         <v>100</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>100</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>100</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="6" t="s">
         <v>100</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>100</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>100</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="6" t="s">
         <v>100</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>100</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>100</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6" t="s">
         <v>100</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>100</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>100</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="6" t="s">
         <v>100</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>100</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>100</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="6" t="s">
         <v>100</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>100</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>100</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="6" t="s">
         <v>100</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>100</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>100</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="6" t="s">
         <v>100</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>100</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>100</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="6" t="s">
         <v>100</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>100</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>100</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="6" t="s">
         <v>100</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>100</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>100</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="6" t="s">
         <v>100</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>100</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>100</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="6" t="s">
         <v>100</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>100</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>100</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
         <v>100</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>100</v>
       </c>
@@ -8153,7 +8153,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>100</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="6" t="s">
         <v>100</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>100</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>100</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="6" t="s">
         <v>100</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>100</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>100</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="6" t="s">
         <v>100</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>100</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>100</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="6" t="s">
         <v>100</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>100</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>100</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="6" t="s">
         <v>100</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>100</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>100</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="6" t="s">
         <v>100</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>100</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>100</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
         <v>100</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>100</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>100</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="6" t="s">
         <v>100</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>100</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>100</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>100</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>100</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>100</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="6" t="s">
         <v>100</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>100</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>100</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="6" t="s">
         <v>100</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>100</v>
       </c>
@@ -9704,7 +9704,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>100</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="6" t="s">
         <v>100</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>100</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>100</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="6" t="s">
         <v>100</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>100</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>100</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="6" t="s">
         <v>100</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>100</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>100</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="6" t="s">
         <v>100</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>100</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>100</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="6" t="s">
         <v>100</v>
       </c>
@@ -10362,7 +10362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>100</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>100</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>100</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>100</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>100</v>
       </c>
@@ -10597,7 +10597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="205" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="6" t="s">
         <v>100</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>100</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>100</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="6" t="s">
         <v>100</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="209" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>100</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="210" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>100</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="211" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="6" t="s">
         <v>100</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="212" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>100</v>
       </c>
@@ -10973,7 +10973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="213" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>100</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="214" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="6" t="s">
         <v>100</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="215" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>100</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="216" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>100</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="217" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="6" t="s">
         <v>100</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="218" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>100</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="219" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>100</v>
       </c>
@@ -11302,7 +11302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="6" t="s">
         <v>100</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="221" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>100</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>100</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="223" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="6" t="s">
         <v>100</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>100</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="225" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>100</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="226" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="6" t="s">
         <v>100</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="227" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>100</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="228" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>100</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="229" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="6" t="s">
         <v>100</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="230" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>100</v>
       </c>
@@ -11819,7 +11819,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="231" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>100</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="6" t="s">
         <v>100</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="233" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>100</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="234" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>100</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="235" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="6" t="s">
         <v>100</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="236" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>100</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="237" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>100</v>
       </c>
@@ -12148,7 +12148,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="238" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="6" t="s">
         <v>100</v>
       </c>
@@ -12195,7 +12195,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>100</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="240" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>100</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="241" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="6" t="s">
         <v>100</v>
       </c>
